--- a/AgentProxy/resources/LMA/config.xlsx
+++ b/AgentProxy/resources/LMA/config.xlsx
@@ -389,7 +389,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -397,7 +397,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/AgentProxy/resources/LMA/config.xlsx
+++ b/AgentProxy/resources/LMA/config.xlsx
@@ -389,7 +389,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -397,7 +397,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
